--- a/teaching/traditional_assets/database/data/bahrain/bahrain_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/bahrain/bahrain_brokerage_investment_banking.xlsx
@@ -591,7 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.5579999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.762</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,85 +609,85 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>84.2</v>
+        <v>38.7</v>
       </c>
       <c r="L2">
-        <v>0.6522075910147174</v>
+        <v>0.1454887218045113</v>
       </c>
       <c r="M2">
-        <v>67.5</v>
+        <v>103</v>
       </c>
       <c r="N2">
-        <v>0.08179835191468735</v>
+        <v>0.1815937940761636</v>
       </c>
       <c r="O2">
-        <v>0.8016627078384798</v>
+        <v>2.661498708010336</v>
       </c>
       <c r="P2">
-        <v>31.1</v>
+        <v>35.4</v>
       </c>
       <c r="Q2">
-        <v>0.03768783325254484</v>
+        <v>0.06241184767277855</v>
       </c>
       <c r="R2">
-        <v>0.3693586698337292</v>
+        <v>0.9147286821705425</v>
       </c>
       <c r="S2">
-        <v>36.4</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="T2">
-        <v>0.5392592592592592</v>
+        <v>0.6563106796116505</v>
       </c>
       <c r="U2">
-        <v>702.4</v>
+        <v>435.7</v>
       </c>
       <c r="V2">
-        <v>0.8511875908870576</v>
+        <v>0.7681593794076162</v>
       </c>
       <c r="W2">
-        <v>0.07733994672545237</v>
+        <v>0.03608391608391609</v>
       </c>
       <c r="X2">
-        <v>0.2311217198631373</v>
+        <v>0.2885869086583041</v>
       </c>
       <c r="Y2">
-        <v>-0.1537817731376849</v>
+        <v>-0.252502992574388</v>
       </c>
       <c r="Z2">
-        <v>0.05962773082074731</v>
+        <v>0.08027765202957597</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.1344374750342923</v>
+        <v>0.1430344091953701</v>
       </c>
       <c r="AC2">
-        <v>-0.1344374750342923</v>
+        <v>-0.1430344091953701</v>
       </c>
       <c r="AD2">
-        <v>2943.4</v>
+        <v>3212.1</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2943.4</v>
+        <v>3212.1</v>
       </c>
       <c r="AG2">
-        <v>2241</v>
+        <v>2776.4</v>
       </c>
       <c r="AH2">
-        <v>0.781032744255161</v>
+        <v>0.8499192972243537</v>
       </c>
       <c r="AI2">
-        <v>0.6757116620752984</v>
+        <v>0.7265222111643898</v>
       </c>
       <c r="AJ2">
-        <v>0.73087208923097</v>
+        <v>0.8303624835506639</v>
       </c>
       <c r="AK2">
-        <v>0.61336763739873</v>
+        <v>0.6966252665913938</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -710,7 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.5579999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.762</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -725,85 +731,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>84.2</v>
+        <v>38.7</v>
       </c>
       <c r="L3">
-        <v>0.6522075910147174</v>
+        <v>0.1454887218045113</v>
       </c>
       <c r="M3">
-        <v>67.5</v>
+        <v>103</v>
       </c>
       <c r="N3">
-        <v>0.08179835191468735</v>
+        <v>0.1815937940761636</v>
       </c>
       <c r="O3">
-        <v>0.8016627078384798</v>
+        <v>2.661498708010336</v>
       </c>
       <c r="P3">
-        <v>31.1</v>
+        <v>35.4</v>
       </c>
       <c r="Q3">
-        <v>0.03768783325254484</v>
+        <v>0.06241184767277855</v>
       </c>
       <c r="R3">
-        <v>0.3693586698337292</v>
+        <v>0.9147286821705425</v>
       </c>
       <c r="S3">
-        <v>36.4</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="T3">
-        <v>0.5392592592592592</v>
+        <v>0.6563106796116505</v>
       </c>
       <c r="U3">
-        <v>702.4</v>
+        <v>435.7</v>
       </c>
       <c r="V3">
-        <v>0.8511875908870576</v>
+        <v>0.7681593794076162</v>
       </c>
       <c r="W3">
-        <v>0.07733994672545237</v>
+        <v>0.03608391608391609</v>
       </c>
       <c r="X3">
-        <v>0.2311217198631373</v>
+        <v>0.2885869086583041</v>
       </c>
       <c r="Y3">
-        <v>-0.1537817731376849</v>
+        <v>-0.252502992574388</v>
       </c>
       <c r="Z3">
-        <v>0.05962773082074731</v>
+        <v>0.08027765202957597</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.1344374750342923</v>
+        <v>0.1430344091953701</v>
       </c>
       <c r="AC3">
-        <v>-0.1344374750342923</v>
+        <v>-0.1430344091953701</v>
       </c>
       <c r="AD3">
-        <v>2943.4</v>
+        <v>3212.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2943.4</v>
+        <v>3212.1</v>
       </c>
       <c r="AG3">
-        <v>2241</v>
+        <v>2776.4</v>
       </c>
       <c r="AH3">
-        <v>0.781032744255161</v>
+        <v>0.8499192972243537</v>
       </c>
       <c r="AI3">
-        <v>0.6757116620752984</v>
+        <v>0.7265222111643898</v>
       </c>
       <c r="AJ3">
-        <v>0.73087208923097</v>
+        <v>0.8303624835506639</v>
       </c>
       <c r="AK3">
-        <v>0.61336763739873</v>
+        <v>0.6966252665913938</v>
       </c>
       <c r="AL3">
         <v>0</v>
